--- a/dataAnalysisCodes/watchERP/04-watchSSVEP-PSD/watchFftDataset.xlsx
+++ b/dataAnalysisCodes/watchERP/04-watchSSVEP-PSD/watchFftDataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
   <si>
     <t>date</t>
   </si>
@@ -232,6 +232,42 @@
   </si>
   <si>
     <t>2013-06-06-16-04-46</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>Yelena</t>
+  </si>
+  <si>
+    <t>18/7/2013</t>
+  </si>
+  <si>
+    <t>2013-07-18-yelena</t>
+  </si>
+  <si>
+    <t>2013-07-18-15-11-12</t>
+  </si>
+  <si>
+    <t>2013-07-18-15-18-53</t>
+  </si>
+  <si>
+    <t>2013-07-18-15-26-03</t>
+  </si>
+  <si>
+    <t>2013-07-18-15-32-16</t>
+  </si>
+  <si>
+    <t>2013-07-18-15-43-31</t>
+  </si>
+  <si>
+    <t>2013-07-18-15-51-54</t>
+  </si>
+  <si>
+    <t>2013-07-18-15-58-42</t>
+  </si>
+  <si>
+    <t>2013-07-18-16-05-13</t>
   </si>
 </sst>
 </file>
@@ -587,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,6 +1706,214 @@
       </c>
       <c r="H41" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="2">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="2">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dataAnalysisCodes/watchERP/04-watchSSVEP-PSD/watchFftDataset.xlsx
+++ b/dataAnalysisCodes/watchERP/04-watchSSVEP-PSD/watchFftDataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="107">
   <si>
     <t>date</t>
   </si>
@@ -268,6 +268,75 @@
   </si>
   <si>
     <t>2013-07-18-16-05-13</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>30/7/2013</t>
+  </si>
+  <si>
+    <t>2013-07-30-robert</t>
+  </si>
+  <si>
+    <t>2013-07-30-14-33-23</t>
+  </si>
+  <si>
+    <t>2013-07-30-14-41-12</t>
+  </si>
+  <si>
+    <t>2013-07-30-15-01-18</t>
+  </si>
+  <si>
+    <t>2013-07-30-15-08-27</t>
+  </si>
+  <si>
+    <t>2013-07-30-15-20-51</t>
+  </si>
+  <si>
+    <t>2013-07-30-15-28-11</t>
+  </si>
+  <si>
+    <t>2013-07-30-15-40-15</t>
+  </si>
+  <si>
+    <t>2013-07-30-15-47-39</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>2013-08-07-10-48-11</t>
+  </si>
+  <si>
+    <t>2013-08-07-10-58-05</t>
+  </si>
+  <si>
+    <t>2013-08-07-11-04-37</t>
+  </si>
+  <si>
+    <t>2013-08-07-11-11-34</t>
+  </si>
+  <si>
+    <t>2013-08-07-11-26-57</t>
+  </si>
+  <si>
+    <t>2013-08-07-11-33-46</t>
+  </si>
+  <si>
+    <t>2013-08-07-11-40-19</t>
+  </si>
+  <si>
+    <t>2013-08-07-11-47-18</t>
+  </si>
+  <si>
+    <t>2013-08-07-alejandro</t>
   </si>
 </sst>
 </file>
@@ -623,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,6 +1983,422 @@
       </c>
       <c r="H49" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>15</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="2">
+        <v>10</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>15</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="2">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="2">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="2">
+        <v>10</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="3">
+        <v>41463</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="2">
+        <v>10</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
